--- a/data/trans_dic/Q25_A_R3-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/Q25_A_R3-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.3022070665565285</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2213567715038284</v>
+        <v>0.2213567715038283</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1756611555589532</v>
+        <v>0.175631154336867</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2700411076340988</v>
+        <v>0.2715818753686775</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2019189313365224</v>
+        <v>0.1995952616978863</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09537643903977935</v>
+        <v>0.09188807506345617</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.334909669735624</v>
+        <v>0.3233460687872758</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2925602244241116</v>
+        <v>0.3002405997677574</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2975311718779798</v>
+        <v>0.3065205952361474</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2230012436973371</v>
+        <v>0.2207434564337497</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2475083491587197</v>
+        <v>0.2477458881711891</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2977523889947069</v>
+        <v>0.2941727673922721</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.254252282072651</v>
+        <v>0.2492749343854915</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1631216995190053</v>
+        <v>0.1617408965480941</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3406082590915127</v>
+        <v>0.3349825913771766</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3973416108047778</v>
+        <v>0.3983275492185249</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.323839480970611</v>
+        <v>0.3234101476414063</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2494458959163964</v>
+        <v>0.2426545751618828</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5992337528163568</v>
+        <v>0.5945390584046577</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4804266999045254</v>
+        <v>0.485162404412221</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5008828768322043</v>
+        <v>0.4986234262040832</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4479025897592483</v>
+        <v>0.4578490287218632</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3917306374004761</v>
+        <v>0.3926737145859068</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4078167486722853</v>
+        <v>0.4060488479126895</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.361152967048055</v>
+        <v>0.3551080306317819</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2943555909608576</v>
+        <v>0.2878419386377452</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1626359579531542</v>
+        <v>0.162931592598902</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2421901168592624</v>
+        <v>0.2471135984369814</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1782933175829222</v>
+        <v>0.1798056188348912</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.136799509341305</v>
+        <v>0.1346161588466861</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2181205329365291</v>
+        <v>0.2142879441339456</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2890743611315124</v>
+        <v>0.2873918205506001</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2257468701579501</v>
+        <v>0.2262853639130883</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2117823903204994</v>
+        <v>0.2046321562810247</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1955925822216791</v>
+        <v>0.1909792579471747</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2812675450640851</v>
+        <v>0.2799463104968072</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2111839754911425</v>
+        <v>0.215738151897934</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1744735315703077</v>
+        <v>0.169808969310037</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2790289486760243</v>
+        <v>0.2817879168853066</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3640935608676667</v>
+        <v>0.3605040329757752</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3054646719752557</v>
+        <v>0.3026043665448453</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2603001484359739</v>
+        <v>0.2605268482432364</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4419952534188467</v>
+        <v>0.4263444811384077</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4690667653880692</v>
+        <v>0.4648101979201649</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4035014943192701</v>
+        <v>0.3962324127019631</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3909783438552242</v>
+        <v>0.3791170860584995</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2965758894308818</v>
+        <v>0.2973498903114788</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3782788423146445</v>
+        <v>0.3756329714953223</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3139637589817573</v>
+        <v>0.3169079036380807</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2806999927220584</v>
+        <v>0.2723803902666886</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1979820313130195</v>
+        <v>0.1986976220562706</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1883364030282547</v>
+        <v>0.1822010594734633</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1504631037439909</v>
+        <v>0.1443152291519341</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0720675462955368</v>
+        <v>0.07363333832222344</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2800530150689186</v>
+        <v>0.2690551474669711</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2093572081692532</v>
+        <v>0.2157757300065001</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1877543253393286</v>
+        <v>0.181643335764677</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2175353556270942</v>
+        <v>0.2180585932332863</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2365931124859366</v>
+        <v>0.2352171640345758</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2137217577939474</v>
+        <v>0.2124798938285825</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1738663384248132</v>
+        <v>0.1832557350846337</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1399016531231604</v>
+        <v>0.1398640620189129</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3254510562936452</v>
+        <v>0.3122501132865534</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3009626801416376</v>
+        <v>0.2988255391116226</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.275119437960497</v>
+        <v>0.2783382250622267</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1778503412919422</v>
+        <v>0.180650424103669</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4852324544071878</v>
+        <v>0.4823380114348556</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4014538662968161</v>
+        <v>0.4054455406190001</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3714419551386308</v>
+        <v>0.3596560667980049</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.399762633734739</v>
+        <v>0.3974847477029742</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3407628797084828</v>
+        <v>0.3431957973872368</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3095692152884547</v>
+        <v>0.3081240653993391</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2760640912780158</v>
+        <v>0.2841796791402138</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2323788749820012</v>
+        <v>0.2376616507009177</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.146810965960768</v>
+        <v>0.1439465249415861</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07257185421527461</v>
+        <v>0.07355723187533322</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1685998832776642</v>
+        <v>0.1654022643881914</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09683706565051198</v>
+        <v>0.09930427692534292</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.153263809127752</v>
+        <v>0.1530722670484627</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2444495657572451</v>
+        <v>0.2270954776974624</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1899539067536605</v>
+        <v>0.1775405701966003</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1518536834018887</v>
+        <v>0.151222272687295</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1788335938422148</v>
+        <v>0.1794179224175945</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1466533528124344</v>
+        <v>0.1427615285699839</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1986553822012308</v>
+        <v>0.1970324665941337</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1361912254577565</v>
+        <v>0.1350410968283668</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3358380955459222</v>
+        <v>0.3348470969245852</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2268526367846256</v>
+        <v>0.2235110499410035</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3325794472758062</v>
+        <v>0.3411327177945088</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2036425320759916</v>
+        <v>0.2067636296973661</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4671993024402569</v>
+        <v>0.4502002597196224</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5367712994905381</v>
+        <v>0.5254111993733031</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3988914385965469</v>
+        <v>0.3870969330499126</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2881963250655287</v>
+        <v>0.282403937312891</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3373325722186683</v>
+        <v>0.3406104761176699</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2920862127340403</v>
+        <v>0.2867171619488325</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3305641310793394</v>
+        <v>0.3229772843131443</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2214076777673041</v>
+        <v>0.2156372602727742</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.2651260403800444</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1951687777850702</v>
+        <v>0.1951687777850701</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2056622914057047</v>
+        <v>0.2068897930746148</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2383867119819389</v>
+        <v>0.2371439523503058</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2071047908019857</v>
+        <v>0.2075688041278481</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1251626376398845</v>
+        <v>0.1264921298777499</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3053189415630371</v>
+        <v>0.3050515772925961</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3114550743516954</v>
+        <v>0.3161276737950412</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2723332516633402</v>
+        <v>0.2675920607384678</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2280106339143788</v>
+        <v>0.2284568099219352</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2413030445647151</v>
+        <v>0.2434146631701033</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2732462298418224</v>
+        <v>0.2746185516877852</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2392627209804246</v>
+        <v>0.2369788880841182</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1700968029179219</v>
+        <v>0.1725264711741933</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2777595752539726</v>
+        <v>0.2765479133632756</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3019996101010134</v>
+        <v>0.3011831042451433</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.274347137045474</v>
+        <v>0.269465575305504</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1863181563166128</v>
+        <v>0.186556930468038</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4296563030774924</v>
+        <v>0.4287751868101</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4124788813265863</v>
+        <v>0.4155322705826357</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3700459490664655</v>
+        <v>0.3722795126026127</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3126438387548569</v>
+        <v>0.3123453461385284</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3050451407254801</v>
+        <v>0.3066471122733971</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3250477773881044</v>
+        <v>0.326640257400511</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2910156750980665</v>
+        <v>0.2938648193248758</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2206621832379304</v>
+        <v>0.2230323640394187</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20846</v>
+        <v>20842</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>57513</v>
+        <v>57841</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45020</v>
+        <v>44502</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8318</v>
+        <v>8014</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>17337</v>
+        <v>16739</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>33718</v>
+        <v>34603</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>32136</v>
+        <v>33107</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11277</v>
+        <v>11163</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>42184</v>
+        <v>42225</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>97731</v>
+        <v>96556</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>84149</v>
+        <v>82502</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>22475</v>
+        <v>22285</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>40420</v>
+        <v>39752</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>84625</v>
+        <v>84835</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>72203</v>
+        <v>72107</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>21754</v>
+        <v>21162</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>31021</v>
+        <v>30778</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>55370</v>
+        <v>55915</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>54099</v>
+        <v>53855</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22650</v>
+        <v>23153</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>66765</v>
+        <v>66926</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>133858</v>
+        <v>133277</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>119530</v>
+        <v>117529</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>40556</v>
+        <v>39659</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>31588</v>
+        <v>31645</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>63484</v>
+        <v>64775</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>31222</v>
+        <v>31487</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>25929</v>
+        <v>25515</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>15710</v>
+        <v>15434</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>36712</v>
+        <v>36498</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>23759</v>
+        <v>23816</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>17909</v>
+        <v>17305</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>52077</v>
+        <v>50848</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>109448</v>
+        <v>108934</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>59209</v>
+        <v>60485</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>47824</v>
+        <v>46546</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>54194</v>
+        <v>54730</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>95438</v>
+        <v>94497</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>53492</v>
+        <v>52991</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>49338</v>
+        <v>49381</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>31835</v>
+        <v>30708</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>59570</v>
+        <v>59030</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>42467</v>
+        <v>41702</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>33063</v>
+        <v>32060</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>78964</v>
+        <v>79170</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>147197</v>
+        <v>146167</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>88024</v>
+        <v>88850</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>76942</v>
+        <v>74661</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>42744</v>
+        <v>42899</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45519</v>
+        <v>44036</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>26830</v>
+        <v>25733</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11923</v>
+        <v>12182</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>22911</v>
+        <v>22011</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>20469</v>
+        <v>21097</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>18032</v>
+        <v>17445</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>19959</v>
+        <v>20007</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>70435</v>
+        <v>70026</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>72550</v>
+        <v>72129</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>47701</v>
+        <v>50277</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>35981</v>
+        <v>35972</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>70265</v>
+        <v>67414</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>72740</v>
+        <v>72223</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>49057</v>
+        <v>49631</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>29424</v>
+        <v>29887</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>39696</v>
+        <v>39459</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>39251</v>
+        <v>39641</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>35674</v>
+        <v>34542</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>36678</v>
+        <v>36469</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>101447</v>
+        <v>102172</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>105087</v>
+        <v>104596</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>75739</v>
+        <v>77966</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>59766</v>
+        <v>61124</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11429</v>
+        <v>11206</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7606</v>
+        <v>7709</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>19022</v>
+        <v>18661</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>19921</v>
+        <v>20429</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5467</v>
+        <v>5460</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>12264</v>
+        <v>11393</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>13362</v>
+        <v>12489</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>19602</v>
+        <v>19521</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>20301</v>
+        <v>20368</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>22727</v>
+        <v>22123</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>36387</v>
+        <v>36090</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>45598</v>
+        <v>45213</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26145</v>
+        <v>26068</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>23774</v>
+        <v>23424</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>37523</v>
+        <v>38488</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>41893</v>
+        <v>42535</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>16666</v>
+        <v>16060</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>26929</v>
+        <v>26359</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>28060</v>
+        <v>27230</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>37202</v>
+        <v>36454</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>38294</v>
+        <v>38666</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>45264</v>
+        <v>44432</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>60549</v>
+        <v>59159</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>74129</v>
+        <v>72197</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>124763</v>
+        <v>125508</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>195857</v>
+        <v>194836</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>142740</v>
+        <v>143060</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>81095</v>
+        <v>81956</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>73666</v>
+        <v>73601</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>121526</v>
+        <v>123349</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>103389</v>
+        <v>101589</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>81165</v>
+        <v>81324</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>204605</v>
+        <v>206395</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>331115</v>
+        <v>332778</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>255737</v>
+        <v>253296</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>170757</v>
+        <v>173196</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>168501</v>
+        <v>167766</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>248121</v>
+        <v>247450</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>189084</v>
+        <v>185720</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>120718</v>
+        <v>120873</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>103665</v>
+        <v>103452</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>160944</v>
+        <v>162135</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>140484</v>
+        <v>141332</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>111292</v>
+        <v>111186</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>258653</v>
+        <v>260011</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>393887</v>
+        <v>395816</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>311053</v>
+        <v>314099</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>221519</v>
+        <v>223898</v>
       </c>
     </row>
     <row r="24">
